--- a/Docs/超级电容参数校准.xlsx
+++ b/Docs/超级电容参数校准.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习文件\Robomaster\超级电容项目\SRM超级电容2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD36620F-7156-4254-9D8C-DD5E7526F5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CE6CC8-8998-4213-BF3D-6467A2621748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7740" yWindow="1710" windowWidth="18885" windowHeight="11385" firstSheet="3" activeTab="9" xr2:uid="{EF25C68E-B1BC-4588-AA24-7A98C114DF09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="8" xr2:uid="{EF25C68E-B1BC-4588-AA24-7A98C114DF09}"/>
   </bookViews>
   <sheets>
     <sheet name="ADC数据" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="35">
   <si>
     <t>超级电容电压电流参数校准及二次函数拟合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -663,9 +663,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -673,6 +670,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10417,84 +10417,60 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'20220717No.5'!$B$3:$B$13</c:f>
+              <c:f>'20220717No.5'!$B$3:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.99199999999999999</c:v>
+                  <c:v>1.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97699999999999998</c:v>
+                  <c:v>1.032</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0109999999999999</c:v>
+                  <c:v>1.0589999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.034</c:v>
+                  <c:v>1.0960000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0569999999999999</c:v>
+                  <c:v>1.1240000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.079</c:v>
+                  <c:v>1.1819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1040000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.127</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.163</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.2090000000000001</c:v>
+                  <c:v>1.234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20220717No.5'!$C$3:$C$13</c:f>
+              <c:f>'20220717No.5'!$C$3:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>19.899999999999999</c:v>
+                  <c:v>20.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>20.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.3</c:v>
+                  <c:v>21.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.8</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.2</c:v>
+                  <c:v>22.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.7</c:v>
+                  <c:v>23.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>23.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24.3</c:v>
+                  <c:v>24.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10502,7 +10478,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-76BB-4264-8F83-FF1592405F3B}"/>
+              <c16:uniqueId val="{00000000-308D-40B5-8299-72059426A40D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10514,11 +10490,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1408120192"/>
-        <c:axId val="1408118944"/>
+        <c:axId val="1210303007"/>
+        <c:axId val="1210312575"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1408120192"/>
+        <c:axId val="1210303007"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10575,12 +10551,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1408118944"/>
+        <c:crossAx val="1210312575"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1408118944"/>
+        <c:axId val="1210312575"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10637,7 +10613,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1408120192"/>
+        <c:crossAx val="1210303007"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11323,66 +11299,54 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'20220717No.5'!$D$3:$D$10</c:f>
+              <c:f>'20220717No.5'!$D$3:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.622</c:v>
+                  <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65400000000000003</c:v>
+                  <c:v>0.97699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71899999999999997</c:v>
+                  <c:v>0.85499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.79100000000000004</c:v>
+                  <c:v>0.81499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88900000000000001</c:v>
+                  <c:v>0.70799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.046</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.08</c:v>
+                  <c:v>0.627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20220717No.5'!$E$3:$E$10</c:f>
+              <c:f>'20220717No.5'!$E$3:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.52</c:v>
+                  <c:v>21.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.15</c:v>
+                  <c:v>20.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.48</c:v>
+                  <c:v>17.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.92</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.89</c:v>
+                  <c:v>14.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21.7</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11390,7 +11354,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D429-4960-A308-1BD4C1F5F523}"/>
+              <c16:uniqueId val="{00000000-5D3B-4470-A4DB-D8FFDBB7D2B2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11402,11 +11366,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1406536656"/>
-        <c:axId val="1406536240"/>
+        <c:axId val="1221715103"/>
+        <c:axId val="1221703455"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1406536656"/>
+        <c:axId val="1221715103"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11463,12 +11427,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1406536240"/>
+        <c:crossAx val="1221703455"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1406536240"/>
+        <c:axId val="1221703455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11525,7 +11489,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1406536656"/>
+        <c:crossAx val="1221715103"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11729,72 +11693,60 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'20220717No.5'!$F$3:$F$11</c:f>
+              <c:f>'20220717No.5'!$F$3:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.7689999999999999</c:v>
+                  <c:v>1.752</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.889</c:v>
+                  <c:v>1.873</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1.9530000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.12</c:v>
+                  <c:v>2.0699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>2.19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3199999999999998</c:v>
+                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.76</c:v>
+                  <c:v>2.4700000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20220717No.5'!$G$3:$G$11</c:f>
+              <c:f>'20220717No.5'!$G$3:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.34</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.24</c:v>
+                  <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.44</c:v>
+                  <c:v>1.34</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.74</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.83</c:v>
+                  <c:v>2.0499999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11802,7 +11754,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B9EA-40E2-B772-12BAABA08602}"/>
+              <c16:uniqueId val="{00000000-CCB3-4CC9-AA0A-20389D5052EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11814,11 +11766,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1457879232"/>
-        <c:axId val="1457880064"/>
+        <c:axId val="1396185647"/>
+        <c:axId val="1396186895"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1457879232"/>
+        <c:axId val="1396185647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11875,12 +11827,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1457880064"/>
+        <c:crossAx val="1396186895"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1457880064"/>
+        <c:axId val="1396186895"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11937,7 +11889,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1457879232"/>
+        <c:crossAx val="1396185647"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12064,7 +12016,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6775371828521436E-2"/>
+          <c:y val="2.5428331875182269E-2"/>
+          <c:w val="0.88073862642169731"/>
+          <c:h val="0.71220691163604555"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -12141,72 +12103,60 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'20220717No.5'!$H$3:$H$11</c:f>
+              <c:f>'20220717No.5'!$H$3:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.7250000000000001</c:v>
+                  <c:v>1.7270000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8009999999999999</c:v>
+                  <c:v>1.8069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8859999999999999</c:v>
+                  <c:v>1.861</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.966</c:v>
+                  <c:v>1.94</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.09</c:v>
+                  <c:v>2.11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.23</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.31</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.39</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20220717No.5'!$I$3:$I$11</c:f>
+              <c:f>'20220717No.5'!$I$3:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12214,7 +12164,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9815-4857-BC0B-BB2AA9C775C7}"/>
+              <c16:uniqueId val="{00000000-AE6B-4D59-90C2-C1B8FF32F949}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12226,11 +12176,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1445305696"/>
-        <c:axId val="1445306112"/>
+        <c:axId val="1393584783"/>
+        <c:axId val="1393588943"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1445305696"/>
+        <c:axId val="1393584783"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12287,12 +12237,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1445306112"/>
+        <c:crossAx val="1393588943"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1445306112"/>
+        <c:axId val="1393588943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12349,7 +12299,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1445305696"/>
+        <c:crossAx val="1393584783"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12440,7 +12390,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>电容电流</a:t>
+              <a:t>输入电压</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -12553,72 +12503,54 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'20220717No.5'!$J$3:$J$11</c:f>
+              <c:f>'20220717No.5'!$A$37:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.7689999999999999</c:v>
+                  <c:v>1.234</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9279999999999999</c:v>
+                  <c:v>1.1499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.12</c:v>
+                  <c:v>1.093</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2400000000000002</c:v>
+                  <c:v>1.0660000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3199999999999998</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.44</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.8</c:v>
+                  <c:v>0.99399999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'20220717No.5'!$K$3:$K$11</c:f>
+              <c:f>'20220717No.5'!$B$37:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>24.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7</c:v>
+                  <c:v>23.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2</c:v>
+                  <c:v>21.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5</c:v>
+                  <c:v>21.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.9</c:v>
+                  <c:v>19.899999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12626,7 +12558,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-492A-48FB-8643-CCCFB66D909B}"/>
+              <c16:uniqueId val="{00000000-1A14-4C91-A364-88805D7446E9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12638,11 +12570,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1458191792"/>
-        <c:axId val="1458185136"/>
+        <c:axId val="1439550943"/>
+        <c:axId val="1439551359"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1458191792"/>
+        <c:axId val="1439550943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12699,12 +12631,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1458185136"/>
+        <c:crossAx val="1439551359"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1458185136"/>
+        <c:axId val="1439551359"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12761,7 +12693,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1458191792"/>
+        <c:crossAx val="1439550943"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -39015,21 +38947,21 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="7" name="图表 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF014419-3571-E3F3-B221-C65F503CFC2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7803E81D-7B68-9CC0-8321-D438F090D46E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -39050,22 +38982,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
+        <xdr:cNvPr id="9" name="图表 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0359DD6E-CDD6-A058-2F08-401094898041}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BAF759B-1077-1A82-1F38-200C1943478D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -39086,22 +39018,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3">
+        <xdr:cNvPr id="11" name="图表 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55FA1217-1934-84F8-D658-CC9E5031094C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF39508A-C82A-121E-E09C-A0A40CDCB09A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -39122,22 +39054,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4">
+        <xdr:cNvPr id="12" name="图表 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BC6E756-5A7E-2A9A-88DB-11562CA191C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E585FED-1266-1765-1235-825A8673F304}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -39157,23 +39089,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="图表 5">
+        <xdr:cNvPr id="14" name="图表 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C8EDF8F-B630-8B42-2A84-34C02744B98A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C532F4E-09CF-178C-A3BD-9E00746E69D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -39649,19 +39581,19 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -40515,14 +40447,14 @@
       <c r="C44" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="35" t="s">
+      <c r="E44" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35" t="s">
+      <c r="F44" s="38"/>
+      <c r="G44" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="H44" s="35"/>
+      <c r="H44" s="38"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -40534,16 +40466,16 @@
       <c r="C45">
         <v>1.3</v>
       </c>
-      <c r="E45" s="35">
+      <c r="E45" s="38">
         <f>C45*19.895-0.028</f>
         <v>25.835500000000003</v>
       </c>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35">
+      <c r="F45" s="38"/>
+      <c r="G45" s="38">
         <f>B45*19.895-0.028</f>
         <v>25.815604999999998</v>
       </c>
-      <c r="H45" s="35"/>
+      <c r="H45" s="38"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -40555,16 +40487,16 @@
       <c r="C46">
         <v>1.5693999999999999</v>
       </c>
-      <c r="E46" s="35">
+      <c r="E46" s="38">
         <f>C46*11.703-18.352</f>
         <v>1.4688199999998375E-2</v>
       </c>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35">
+      <c r="F46" s="38"/>
+      <c r="G46" s="38">
         <f>B46*11.703-18.352</f>
         <v>1.0006999999998101E-2</v>
       </c>
-      <c r="H46" s="35"/>
+      <c r="H46" s="38"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -40576,16 +40508,16 @@
       <c r="C47">
         <v>1.6484000000000001</v>
       </c>
-      <c r="E47" s="35">
+      <c r="E47" s="38">
         <f>C47*12.42-20.584</f>
         <v>-0.11087199999999697</v>
       </c>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35">
+      <c r="F47" s="38"/>
+      <c r="G47" s="38">
         <f>B47*12.42-20.584</f>
         <v>-7.8579999999998762E-2</v>
       </c>
-      <c r="H47" s="35"/>
+      <c r="H47" s="38"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -40597,16 +40529,16 @@
       <c r="C48">
         <v>1.6427</v>
       </c>
-      <c r="E48" s="35">
+      <c r="E48" s="38">
         <f>C48*25.947-42.684</f>
         <v>-6.0863099999998838E-2</v>
       </c>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35">
+      <c r="F48" s="38"/>
+      <c r="G48" s="38">
         <f>B48*25.947-42.684</f>
         <v>-0.18281400000000048</v>
       </c>
-      <c r="H48" s="35"/>
+      <c r="H48" s="38"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -40618,24 +40550,18 @@
       <c r="C49">
         <v>0.47799999999999998</v>
       </c>
-      <c r="E49" s="35">
+      <c r="E49" s="38">
         <f>C49*20.03-0.0223</f>
         <v>9.5520399999999999</v>
       </c>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35">
+      <c r="F49" s="38"/>
+      <c r="G49" s="38">
         <v>9.48</v>
       </c>
-      <c r="H49" s="35"/>
+      <c r="H49" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E47:F47"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="G45:H45"/>
@@ -40643,6 +40569,12 @@
     <mergeCell ref="G47:H47"/>
     <mergeCell ref="G48:H48"/>
     <mergeCell ref="G49:H49"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E47:F47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40655,7 +40587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8178FBC3-B769-465C-BF40-8EA8EF832FC8}">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
@@ -40665,19 +40597,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -41052,19 +40984,19 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -41930,14 +41862,14 @@
       <c r="C44" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="35" t="s">
+      <c r="E44" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35" t="s">
+      <c r="F44" s="38"/>
+      <c r="G44" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="H44" s="35"/>
+      <c r="H44" s="38"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -41949,16 +41881,16 @@
       <c r="C45">
         <v>1.3</v>
       </c>
-      <c r="E45" s="35">
+      <c r="E45" s="38">
         <f>C45*19.895-0.028</f>
         <v>25.835500000000003</v>
       </c>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35">
+      <c r="F45" s="38"/>
+      <c r="G45" s="38">
         <f>B45*19.895-0.028</f>
         <v>25.815604999999998</v>
       </c>
-      <c r="H45" s="35"/>
+      <c r="H45" s="38"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -41970,16 +41902,16 @@
       <c r="C46">
         <v>1.5693999999999999</v>
       </c>
-      <c r="E46" s="35">
+      <c r="E46" s="38">
         <f>C46*11.703-18.352</f>
         <v>1.4688199999998375E-2</v>
       </c>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35">
+      <c r="F46" s="38"/>
+      <c r="G46" s="38">
         <f>B46*11.703-18.352</f>
         <v>1.0006999999998101E-2</v>
       </c>
-      <c r="H46" s="35"/>
+      <c r="H46" s="38"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -41991,16 +41923,16 @@
       <c r="C47">
         <v>1.6484000000000001</v>
       </c>
-      <c r="E47" s="35">
+      <c r="E47" s="38">
         <f>C47*12.42-20.584</f>
         <v>-0.11087199999999697</v>
       </c>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35">
+      <c r="F47" s="38"/>
+      <c r="G47" s="38">
         <f>B47*12.42-20.584</f>
         <v>-7.8579999999998762E-2</v>
       </c>
-      <c r="H47" s="35"/>
+      <c r="H47" s="38"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -42012,16 +41944,16 @@
       <c r="C48">
         <v>1.6427</v>
       </c>
-      <c r="E48" s="35">
+      <c r="E48" s="38">
         <f>C48*25.947-42.684</f>
         <v>-6.0863099999998838E-2</v>
       </c>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35">
+      <c r="F48" s="38"/>
+      <c r="G48" s="38">
         <f>B48*25.947-42.684</f>
         <v>-0.18281400000000048</v>
       </c>
-      <c r="H48" s="35"/>
+      <c r="H48" s="38"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -42033,18 +41965,24 @@
       <c r="C49">
         <v>0.47799999999999998</v>
       </c>
-      <c r="E49" s="35">
+      <c r="E49" s="38">
         <f>C49*20.03-0.0223</f>
         <v>9.5520399999999999</v>
       </c>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35">
+      <c r="F49" s="38"/>
+      <c r="G49" s="38">
         <v>9.48</v>
       </c>
-      <c r="H49" s="35"/>
+      <c r="H49" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="A1:K1"/>
@@ -42052,12 +41990,6 @@
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="G45:H45"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44944,19 +44876,19 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -45909,26 +45841,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223A2AB4-E528-4A97-A231-7F488D21B0E9}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -46554,28 +46486,28 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E9672B-91D8-4C54-8D02-0F1A944AAA42}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:K14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="S43" sqref="S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -46617,322 +46549,250 @@
         <v>1</v>
       </c>
       <c r="B3" s="8">
-        <v>0.99199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="C3" s="16">
-        <v>19.899999999999999</v>
+        <v>20.3</v>
       </c>
       <c r="D3" s="8">
-        <v>0.622</v>
+        <v>1.05</v>
       </c>
       <c r="E3" s="17">
-        <v>12.52</v>
+        <v>21.7</v>
       </c>
       <c r="F3" s="8">
-        <v>1.7689999999999999</v>
+        <v>1.752</v>
       </c>
       <c r="G3" s="17">
-        <v>0.34</v>
+        <v>0.25</v>
       </c>
       <c r="H3" s="8">
-        <v>1.7250000000000001</v>
+        <v>1.7270000000000001</v>
       </c>
       <c r="I3" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="J3" s="18">
-        <v>1.7689999999999999</v>
-      </c>
-      <c r="K3" s="16">
-        <v>0.3</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="16"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="1">
+        <v>1.032</v>
+      </c>
+      <c r="C4" s="2">
+        <v>20.7</v>
+      </c>
+      <c r="D4" s="1">
         <v>0.97699999999999998</v>
       </c>
-      <c r="C4" s="2">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.65400000000000003</v>
-      </c>
       <c r="E4" s="11">
-        <v>13.15</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="F4" s="1">
-        <v>1.889</v>
+        <v>1.873</v>
       </c>
       <c r="G4" s="11">
-        <v>0.63</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H4" s="1">
-        <v>1.8009999999999999</v>
+        <v>1.8069999999999999</v>
       </c>
       <c r="I4" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="J4" s="6">
-        <v>1.9279999999999999</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.7</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0109999999999999</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="C5" s="2">
-        <v>20.3</v>
+        <v>21.3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.71899999999999997</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="E5" s="11">
-        <v>14.48</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="F5" s="1">
-        <v>2</v>
+        <v>1.9530000000000001</v>
       </c>
       <c r="G5" s="11">
-        <v>0.94</v>
+        <v>0.75</v>
       </c>
       <c r="H5" s="1">
-        <v>1.8859999999999999</v>
+        <v>1.861</v>
       </c>
       <c r="I5" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="J5" s="6">
-        <v>2.12</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1.2</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>1.034</v>
+        <v>1.0960000000000001</v>
       </c>
       <c r="C6" s="2">
-        <v>20.8</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>0.79100000000000004</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="E6" s="11">
-        <v>15.92</v>
+        <v>16.8</v>
       </c>
       <c r="F6" s="1">
-        <v>2.12</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="G6" s="11">
-        <v>1.24</v>
+        <v>1.05</v>
       </c>
       <c r="H6" s="1">
-        <v>1.966</v>
+        <v>1.94</v>
       </c>
       <c r="I6" s="11">
-        <v>1.2</v>
-      </c>
-      <c r="J6" s="6">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1.0569999999999999</v>
+        <v>1.1240000000000001</v>
       </c>
       <c r="C7" s="2">
-        <v>21.2</v>
+        <v>22.6</v>
       </c>
       <c r="D7" s="1">
-        <v>0.88900000000000001</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="E7" s="11">
-        <v>17.89</v>
+        <v>14.6</v>
       </c>
       <c r="F7" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.19</v>
       </c>
       <c r="G7" s="11">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="H7" s="1">
         <v>2.0099999999999998</v>
       </c>
       <c r="I7" s="11">
-        <v>1.4</v>
-      </c>
-      <c r="J7" s="6">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1.7</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>1.079</v>
+        <v>1.1819999999999999</v>
       </c>
       <c r="C8" s="2">
-        <v>21.7</v>
+        <v>23.7</v>
       </c>
       <c r="D8" s="1">
-        <v>0.996</v>
+        <v>0.627</v>
       </c>
       <c r="E8" s="11">
-        <v>20</v>
+        <v>12.9</v>
       </c>
       <c r="F8" s="1">
-        <v>2.3199999999999998</v>
+        <v>2.35</v>
       </c>
       <c r="G8" s="11">
         <v>1.74</v>
       </c>
       <c r="H8" s="1">
-        <v>2.09</v>
+        <v>2.11</v>
       </c>
       <c r="I8" s="11">
         <v>1.7</v>
       </c>
-      <c r="J8" s="6">
-        <v>2.44</v>
-      </c>
-      <c r="K8" s="2">
-        <v>2</v>
-      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>1.1040000000000001</v>
+        <v>1.234</v>
       </c>
       <c r="C9" s="2">
-        <v>22.2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1.046</v>
-      </c>
-      <c r="E9" s="11">
-        <v>21</v>
-      </c>
+        <v>24.8</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="1">
-        <v>2.5299999999999998</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="G9" s="11">
-        <v>2.2400000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>2.23</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I9" s="11">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J9" s="6">
-        <v>2.56</v>
-      </c>
-      <c r="K9" s="2">
-        <v>2.2999999999999998</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>1.127</v>
-      </c>
-      <c r="C10" s="2">
-        <v>22.6</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.08</v>
-      </c>
-      <c r="E10" s="11">
-        <v>21.7</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2.64</v>
-      </c>
-      <c r="G10" s="11">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2.31</v>
-      </c>
-      <c r="I10" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="J10" s="6">
-        <v>2.68</v>
-      </c>
-      <c r="K10" s="2">
-        <v>2.6</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="C11" s="2">
-        <v>23.1</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="1">
-        <v>2.76</v>
-      </c>
-      <c r="G11" s="11">
-        <v>2.83</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2.39</v>
-      </c>
-      <c r="I11" s="11">
-        <v>2.8</v>
-      </c>
-      <c r="J11" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="K11" s="2">
-        <v>2.9</v>
-      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>1.163</v>
-      </c>
-      <c r="C12" s="2">
-        <v>23.4</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="1"/>
       <c r="E12" s="11"/>
       <c r="F12" s="1"/>
@@ -46946,12 +46806,8 @@
       <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
-        <v>1.2090000000000001</v>
-      </c>
-      <c r="C13" s="2">
-        <v>24.3</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="1"/>
       <c r="E13" s="11"/>
       <c r="F13" s="1"/>
@@ -47141,6 +46997,67 @@
       <c r="J25" s="7"/>
       <c r="K25" s="4"/>
     </row>
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:2" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
+        <v>1.234</v>
+      </c>
+      <c r="B37" s="16">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B38" s="2">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>1.093</v>
+      </c>
+      <c r="B39" s="2">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="B40" s="2">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="B41" s="2">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="B42" s="2">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>

--- a/Docs/超级电容参数校准.xlsx
+++ b/Docs/超级电容参数校准.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习文件\Robomaster\超级电容项目\SRM超级电容2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CE6CC8-8998-4213-BF3D-6467A2621748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE945A1A-0B64-40B7-9BA7-065B51A948CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="8" xr2:uid="{EF25C68E-B1BC-4588-AA24-7A98C114DF09}"/>
+    <workbookView minimized="1" xWindow="5025" yWindow="4215" windowWidth="18885" windowHeight="11385" firstSheet="4" activeTab="10" xr2:uid="{EF25C68E-B1BC-4588-AA24-7A98C114DF09}"/>
   </bookViews>
   <sheets>
     <sheet name="ADC数据" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="20220713No.4" sheetId="8" r:id="rId8"/>
     <sheet name="20220717No.5" sheetId="9" r:id="rId9"/>
     <sheet name="20220718No.6" sheetId="11" r:id="rId10"/>
+    <sheet name="20220723No.7" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="35">
   <si>
     <t>超级电容电压电流参数校准及二次函数拟合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -663,6 +664,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,9 +674,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14326,6 +14327,818 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>输入电压</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.2904855643044626E-2"/>
+                  <c:y val="-6.2026465441819771E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20220723No.7'!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.2130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.034</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0109999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20220723No.7'!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B740-4DC5-A885-61C61365BE4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="989179087"/>
+        <c:axId val="989177007"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="989179087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="989177007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="989177007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="989179087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>输入电流</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20220723No.7'!$F$3:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.7330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9730000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20220723No.7'!$G$3:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3199999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15CA-4A74-AC5E-745BE2496E2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1046157327"/>
+        <c:axId val="998801503"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1046157327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="998801503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="998801503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1046157327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -14778,6 +15591,807 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1475157167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>输出电流</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20220723No.7'!$H$3:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.704</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.861</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20220723No.7'!$I$3:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9BF2-482D-A5DD-C45A73203514}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="989622447"/>
+        <c:axId val="989622031"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="989622447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="989622031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="989622031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="989622447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>电容电压</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20220723No.7'!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.624</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20220723No.7'!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>24.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E18E-47AF-BCC9-EFF2EA32F6BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1055221359"/>
+        <c:axId val="1055222607"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1055221359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1055222607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1055222607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1055221359"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18565,7 +20179,167 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors38.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors39.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors40.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors41.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -34801,7 +36575,2071 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style38.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style39.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style40.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style41.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -39275,6 +43113,155 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9FD142-731E-509A-75A7-2007D4005DEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8698C6F5-7ED7-1E11-2552-DC54AD49FC66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2435E230-EE9F-AF71-3199-FB8E1ABCE5E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D015BA07-C2B2-92D6-567D-A09AE4A6A9E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -39581,19 +43568,19 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -40447,14 +44434,14 @@
       <c r="C44" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="38" t="s">
+      <c r="E44" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38" t="s">
+      <c r="F44" s="35"/>
+      <c r="G44" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H44" s="38"/>
+      <c r="H44" s="35"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -40466,16 +44453,16 @@
       <c r="C45">
         <v>1.3</v>
       </c>
-      <c r="E45" s="38">
+      <c r="E45" s="35">
         <f>C45*19.895-0.028</f>
         <v>25.835500000000003</v>
       </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38">
+      <c r="F45" s="35"/>
+      <c r="G45" s="35">
         <f>B45*19.895-0.028</f>
         <v>25.815604999999998</v>
       </c>
-      <c r="H45" s="38"/>
+      <c r="H45" s="35"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -40487,16 +44474,16 @@
       <c r="C46">
         <v>1.5693999999999999</v>
       </c>
-      <c r="E46" s="38">
+      <c r="E46" s="35">
         <f>C46*11.703-18.352</f>
         <v>1.4688199999998375E-2</v>
       </c>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38">
+      <c r="F46" s="35"/>
+      <c r="G46" s="35">
         <f>B46*11.703-18.352</f>
         <v>1.0006999999998101E-2</v>
       </c>
-      <c r="H46" s="38"/>
+      <c r="H46" s="35"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -40508,16 +44495,16 @@
       <c r="C47">
         <v>1.6484000000000001</v>
       </c>
-      <c r="E47" s="38">
+      <c r="E47" s="35">
         <f>C47*12.42-20.584</f>
         <v>-0.11087199999999697</v>
       </c>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38">
+      <c r="F47" s="35"/>
+      <c r="G47" s="35">
         <f>B47*12.42-20.584</f>
         <v>-7.8579999999998762E-2</v>
       </c>
-      <c r="H47" s="38"/>
+      <c r="H47" s="35"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -40529,16 +44516,16 @@
       <c r="C48">
         <v>1.6427</v>
       </c>
-      <c r="E48" s="38">
+      <c r="E48" s="35">
         <f>C48*25.947-42.684</f>
         <v>-6.0863099999998838E-2</v>
       </c>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38">
+      <c r="F48" s="35"/>
+      <c r="G48" s="35">
         <f>B48*25.947-42.684</f>
         <v>-0.18281400000000048</v>
       </c>
-      <c r="H48" s="38"/>
+      <c r="H48" s="35"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -40550,18 +44537,24 @@
       <c r="C49">
         <v>0.47799999999999998</v>
       </c>
-      <c r="E49" s="38">
+      <c r="E49" s="35">
         <f>C49*20.03-0.0223</f>
         <v>9.5520399999999999</v>
       </c>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38">
+      <c r="F49" s="35"/>
+      <c r="G49" s="35">
         <v>9.48</v>
       </c>
-      <c r="H49" s="38"/>
+      <c r="H49" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E47:F47"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="G45:H45"/>
@@ -40569,12 +44562,6 @@
     <mergeCell ref="G47:H47"/>
     <mergeCell ref="G48:H48"/>
     <mergeCell ref="G49:H49"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E47:F47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40588,7 +44575,7 @@
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -40597,19 +44584,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -40949,6 +44936,372 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72098B1-3166-40D3-82CD-B956246FC788}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1.2130000000000001</v>
+      </c>
+      <c r="C3" s="16">
+        <v>24.4</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1.21</v>
+      </c>
+      <c r="E3" s="17">
+        <v>24.28</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1.7330000000000001</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1.704</v>
+      </c>
+      <c r="I3" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>23.9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="E4" s="11">
+        <v>21.34</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.853</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.53</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.7829999999999999</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C5" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="E5" s="11">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.9730000000000001</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.83</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.861</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.121</v>
+      </c>
+      <c r="C6" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="E6" s="11">
+        <v>16.47</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.09</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.069</v>
+      </c>
+      <c r="C7" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="E7" s="11">
+        <v>14.1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.21</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1.43</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.034</v>
+      </c>
+      <c r="C8" s="2">
+        <v>20.8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.624</v>
+      </c>
+      <c r="E8" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1.73</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2.09</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G9" s="11">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I9" s="11">
+        <v>2</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="G10" s="11">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="I10" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -40984,19 +45337,19 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -41862,14 +46215,14 @@
       <c r="C44" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="38" t="s">
+      <c r="E44" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38" t="s">
+      <c r="F44" s="35"/>
+      <c r="G44" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H44" s="38"/>
+      <c r="H44" s="35"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -41881,16 +46234,16 @@
       <c r="C45">
         <v>1.3</v>
       </c>
-      <c r="E45" s="38">
+      <c r="E45" s="35">
         <f>C45*19.895-0.028</f>
         <v>25.835500000000003</v>
       </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38">
+      <c r="F45" s="35"/>
+      <c r="G45" s="35">
         <f>B45*19.895-0.028</f>
         <v>25.815604999999998</v>
       </c>
-      <c r="H45" s="38"/>
+      <c r="H45" s="35"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -41902,16 +46255,16 @@
       <c r="C46">
         <v>1.5693999999999999</v>
       </c>
-      <c r="E46" s="38">
+      <c r="E46" s="35">
         <f>C46*11.703-18.352</f>
         <v>1.4688199999998375E-2</v>
       </c>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38">
+      <c r="F46" s="35"/>
+      <c r="G46" s="35">
         <f>B46*11.703-18.352</f>
         <v>1.0006999999998101E-2</v>
       </c>
-      <c r="H46" s="38"/>
+      <c r="H46" s="35"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -41923,16 +46276,16 @@
       <c r="C47">
         <v>1.6484000000000001</v>
       </c>
-      <c r="E47" s="38">
+      <c r="E47" s="35">
         <f>C47*12.42-20.584</f>
         <v>-0.11087199999999697</v>
       </c>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38">
+      <c r="F47" s="35"/>
+      <c r="G47" s="35">
         <f>B47*12.42-20.584</f>
         <v>-7.8579999999998762E-2</v>
       </c>
-      <c r="H47" s="38"/>
+      <c r="H47" s="35"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -41944,16 +46297,16 @@
       <c r="C48">
         <v>1.6427</v>
       </c>
-      <c r="E48" s="38">
+      <c r="E48" s="35">
         <f>C48*25.947-42.684</f>
         <v>-6.0863099999998838E-2</v>
       </c>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38">
+      <c r="F48" s="35"/>
+      <c r="G48" s="35">
         <f>B48*25.947-42.684</f>
         <v>-0.18281400000000048</v>
       </c>
-      <c r="H48" s="38"/>
+      <c r="H48" s="35"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -41965,24 +46318,18 @@
       <c r="C49">
         <v>0.47799999999999998</v>
       </c>
-      <c r="E49" s="38">
+      <c r="E49" s="35">
         <f>C49*20.03-0.0223</f>
         <v>9.5520399999999999</v>
       </c>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38">
+      <c r="F49" s="35"/>
+      <c r="G49" s="35">
         <v>9.48</v>
       </c>
-      <c r="H49" s="38"/>
+      <c r="H49" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="A1:K1"/>
@@ -41990,6 +46337,12 @@
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="G45:H45"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44870,25 +49223,25 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:K25"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -45848,19 +50201,19 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -46488,26 +50841,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E9672B-91D8-4C54-8D02-0F1A944AAA42}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="S43" sqref="S43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E5:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">

--- a/Docs/超级电容参数校准.xlsx
+++ b/Docs/超级电容参数校准.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习文件\Robomaster\超级电容项目\SRM超级电容2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE945A1A-0B64-40B7-9BA7-065B51A948CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B546E36-B61B-4A82-9107-C75B515206B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5025" yWindow="4215" windowWidth="18885" windowHeight="11385" firstSheet="4" activeTab="10" xr2:uid="{EF25C68E-B1BC-4588-AA24-7A98C114DF09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="11" xr2:uid="{EF25C68E-B1BC-4588-AA24-7A98C114DF09}"/>
   </bookViews>
   <sheets>
     <sheet name="ADC数据" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="20220717No.5" sheetId="9" r:id="rId9"/>
     <sheet name="20220718No.6" sheetId="11" r:id="rId10"/>
     <sheet name="20220723No.7" sheetId="12" r:id="rId11"/>
+    <sheet name="电容充放电理论曲线" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="36">
   <si>
     <t>超级电容电压电流参数校准及二次函数拟合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,6 +184,10 @@
   </si>
   <si>
     <t>程序运行时长计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电容组能量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,9 +669,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -674,6 +676,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -16392,6 +16397,1563 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1055221359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>电容电压与能量对应曲线</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>电容充放电理论曲线!$A$2:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>电容充放电理论曲线!$B$2:$B$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1763.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1732.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1702.5333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1672.5333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1642.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1613.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1584.1333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1555.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1526.5333333333331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1498.1333333333332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1470</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1442.1333333333334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1414.5333333333335</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1387.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1360.1333333333332</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1333.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1306.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1280.5333333333335</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1254.5333333333333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1228.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1203.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1178.1333333333334</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1153.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1128.5333333333333</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1104.1333333333334</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1056.1333333333334</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1032.5333333333335</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1009.1999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>986.13333333333333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>963.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>940.80000000000007</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>918.53333333333342</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>896.5333333333333</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>874.80000000000007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>853.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>832.13333333333333</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>811.19999999999993</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>790.5333333333333</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>770.13333333333333</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>730.13333333333333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>710.5333333333333</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>691.19999999999993</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>672.13333333333333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>653.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>634.80000000000007</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>616.5333333333333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>598.53333333333342</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>580.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>563.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>546.13333333333333</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>529.19999999999993</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>512.53333333333342</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>496.13333333333327</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97CC-403A-AD96-C9DF566A6D65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="741043311"/>
+        <c:axId val="742426159"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="741043311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="11"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="742426159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="742426159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="741043311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>恒定功率充电 电容组电压</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>电容充放电理论曲线!$L$2:$L$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="95"/>
+                <c:pt idx="0">
+                  <c:v>1880</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1860</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1820</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1780</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1740</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1720</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1660</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1640</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1620</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1580</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1540</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1420</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1340</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>电容充放电理论曲线!$M$2:$M$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="95"/>
+                <c:pt idx="0">
+                  <c:v>23.748684174075834</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.622023622035432</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.49468024894146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.366642891095847</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.2379000772445</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.108440016582687</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.978250586152114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.847319317591726</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.715633383201094</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.583179581272429</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.449944320643649</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.315913604421397</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.181073012818835</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.045407685048602</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.908902300206645</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.77154105707724</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.633307652783937</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.494185260204677</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.354156504062622</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.213203435596427</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.071307505705477</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20.928449536456348</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.784609690826528</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20.639767440550294</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.493901531919196</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.346989949375804</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20.199009876724155</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20.049937655763422</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.899748742132399</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.748417658131498</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.595917942265423</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.442222095223581</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19.28730152198591</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19.131126469708992</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18.973665961010276</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18.814887722226779</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18.654758106177631</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18.493242008906929</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18.330302779823359</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>18.165902124584949</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17.832554500127006</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17.663521732655695</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.4928556845359</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.320508075688775</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17.146428199482248</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16.970562748477139</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16.792855623746664</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16.61324772583615</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16.431676725154983</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16.248076809271922</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16.06237840420901</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>15.874507866387544</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>15.684387141358123</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>15.491933384829668</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>15.297058540778355</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>15.0996688705415</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14.89966442575134</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14.696938456699069</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14.491376746189438</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>14.282856857085701</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>14.071247279470288</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>13.856406460551018</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13.638181696985855</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>13.416407864998739</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>13.19090595827292</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12.961481396815721</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12.727922061357855</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>12.489995996796797</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>12.24744871391589</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11.74734012447073</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>11.489125293076057</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>11.224972160321824</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>10.954451150103322</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>10.677078252031311</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10.392304845413264</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10.099504938362077</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.7979589711327115</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.4868329805051381</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.1651513899116797</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.8317608663278477</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.4852813742385695</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.1240384046359608</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.745966692414834</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.3484692283495345</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.9282032302755088</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.4807406984078604</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.4772255750516612</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.8989794855663558</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.2426406871192848</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.4641016151377544</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.4494897427831779</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18D4-4B14-A1F2-F060885B22E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="869851391"/>
+        <c:axId val="869855551"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="869851391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="869855551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="869855551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="869851391"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20379,6 +21941,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors42.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors43.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -39155,6 +40797,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style42.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style43.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -41912,6 +44586,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C585D885-1892-28D1-7EC1-B0A06AEEF53A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F11E342-6B0F-7620-DFB9-323CC0C7B263}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -43568,19 +46319,19 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -44434,14 +47185,14 @@
       <c r="C44" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="35" t="s">
+      <c r="E44" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35" t="s">
+      <c r="F44" s="38"/>
+      <c r="G44" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="H44" s="35"/>
+      <c r="H44" s="38"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -44453,16 +47204,16 @@
       <c r="C45">
         <v>1.3</v>
       </c>
-      <c r="E45" s="35">
+      <c r="E45" s="38">
         <f>C45*19.895-0.028</f>
         <v>25.835500000000003</v>
       </c>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35">
+      <c r="F45" s="38"/>
+      <c r="G45" s="38">
         <f>B45*19.895-0.028</f>
         <v>25.815604999999998</v>
       </c>
-      <c r="H45" s="35"/>
+      <c r="H45" s="38"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -44474,16 +47225,16 @@
       <c r="C46">
         <v>1.5693999999999999</v>
       </c>
-      <c r="E46" s="35">
+      <c r="E46" s="38">
         <f>C46*11.703-18.352</f>
         <v>1.4688199999998375E-2</v>
       </c>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35">
+      <c r="F46" s="38"/>
+      <c r="G46" s="38">
         <f>B46*11.703-18.352</f>
         <v>1.0006999999998101E-2</v>
       </c>
-      <c r="H46" s="35"/>
+      <c r="H46" s="38"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -44495,16 +47246,16 @@
       <c r="C47">
         <v>1.6484000000000001</v>
       </c>
-      <c r="E47" s="35">
+      <c r="E47" s="38">
         <f>C47*12.42-20.584</f>
         <v>-0.11087199999999697</v>
       </c>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35">
+      <c r="F47" s="38"/>
+      <c r="G47" s="38">
         <f>B47*12.42-20.584</f>
         <v>-7.8579999999998762E-2</v>
       </c>
-      <c r="H47" s="35"/>
+      <c r="H47" s="38"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -44516,16 +47267,16 @@
       <c r="C48">
         <v>1.6427</v>
       </c>
-      <c r="E48" s="35">
+      <c r="E48" s="38">
         <f>C48*25.947-42.684</f>
         <v>-6.0863099999998838E-2</v>
       </c>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35">
+      <c r="F48" s="38"/>
+      <c r="G48" s="38">
         <f>B48*25.947-42.684</f>
         <v>-0.18281400000000048</v>
       </c>
-      <c r="H48" s="35"/>
+      <c r="H48" s="38"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -44537,24 +47288,18 @@
       <c r="C49">
         <v>0.47799999999999998</v>
       </c>
-      <c r="E49" s="35">
+      <c r="E49" s="38">
         <f>C49*20.03-0.0223</f>
         <v>9.5520399999999999</v>
       </c>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35">
+      <c r="F49" s="38"/>
+      <c r="G49" s="38">
         <v>9.48</v>
       </c>
-      <c r="H49" s="35"/>
+      <c r="H49" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E47:F47"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="G45:H45"/>
@@ -44562,6 +47307,12 @@
     <mergeCell ref="G47:H47"/>
     <mergeCell ref="G48:H48"/>
     <mergeCell ref="G49:H49"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E47:F47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44584,19 +47335,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -44964,26 +47715,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72098B1-3166-40D3-82CD-B956246FC788}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -45326,6 +48077,1284 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CD011C-F1AC-4D31-A726-864290D59D2C}">
+  <dimension ref="A1:M96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <f>10*A2*A2/3</f>
+        <v>1763.3333333333333</v>
+      </c>
+      <c r="L2">
+        <v>1880</v>
+      </c>
+      <c r="M2">
+        <f>SQRT(L2*3/10)</f>
+        <v>23.748684174075834</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>22.8</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B2:D57" si="0">10*A3*A3/3</f>
+        <v>1732.8000000000002</v>
+      </c>
+      <c r="L3">
+        <v>1860</v>
+      </c>
+      <c r="M3">
+        <f>SQRT(L3*3/10)</f>
+        <v>23.622023622035432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>22.6</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1702.5333333333335</v>
+      </c>
+      <c r="L4">
+        <v>1840</v>
+      </c>
+      <c r="M4">
+        <f>SQRT(L4*3/10)</f>
+        <v>23.49468024894146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>22.4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1672.5333333333331</v>
+      </c>
+      <c r="L5">
+        <v>1820</v>
+      </c>
+      <c r="M5">
+        <f>SQRT(L5*3/10)</f>
+        <v>23.366642891095847</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>22.2</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1642.8</v>
+      </c>
+      <c r="L6">
+        <v>1800</v>
+      </c>
+      <c r="M6">
+        <f>SQRT(L6*3/10)</f>
+        <v>23.2379000772445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1613.3333333333333</v>
+      </c>
+      <c r="L7">
+        <v>1780</v>
+      </c>
+      <c r="M7">
+        <f>SQRT(L7*3/10)</f>
+        <v>23.108440016582687</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>21.8</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1584.1333333333334</v>
+      </c>
+      <c r="L8">
+        <v>1760</v>
+      </c>
+      <c r="M8">
+        <f>SQRT(L8*3/10)</f>
+        <v>22.978250586152114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>21.6</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1555.2</v>
+      </c>
+      <c r="L9">
+        <v>1740</v>
+      </c>
+      <c r="M9">
+        <f>SQRT(L9*3/10)</f>
+        <v>22.847319317591726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>21.4</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1526.5333333333331</v>
+      </c>
+      <c r="L10">
+        <v>1720</v>
+      </c>
+      <c r="M10">
+        <f>SQRT(L10*3/10)</f>
+        <v>22.715633383201094</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>21.2</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1498.1333333333332</v>
+      </c>
+      <c r="L11">
+        <v>1700</v>
+      </c>
+      <c r="M11">
+        <f>SQRT(L11*3/10)</f>
+        <v>22.583179581272429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1470</v>
+      </c>
+      <c r="L12">
+        <v>1680</v>
+      </c>
+      <c r="M12">
+        <f>SQRT(L12*3/10)</f>
+        <v>22.449944320643649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>20.8</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1442.1333333333334</v>
+      </c>
+      <c r="L13">
+        <v>1660</v>
+      </c>
+      <c r="M13">
+        <f>SQRT(L13*3/10)</f>
+        <v>22.315913604421397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>20.6</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1414.5333333333335</v>
+      </c>
+      <c r="L14">
+        <v>1640</v>
+      </c>
+      <c r="M14">
+        <f>SQRT(L14*3/10)</f>
+        <v>22.181073012818835</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1387.1999999999998</v>
+      </c>
+      <c r="L15">
+        <v>1620</v>
+      </c>
+      <c r="M15">
+        <f>SQRT(L15*3/10)</f>
+        <v>22.045407685048602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>20.2</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1360.1333333333332</v>
+      </c>
+      <c r="L16">
+        <v>1600</v>
+      </c>
+      <c r="M16">
+        <f>SQRT(L16*3/10)</f>
+        <v>21.908902300206645</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1333.3333333333333</v>
+      </c>
+      <c r="L17">
+        <v>1580</v>
+      </c>
+      <c r="M17">
+        <f>SQRT(L17*3/10)</f>
+        <v>21.77154105707724</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>19.8</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1306.8</v>
+      </c>
+      <c r="L18">
+        <v>1560</v>
+      </c>
+      <c r="M18">
+        <f>SQRT(L18*3/10)</f>
+        <v>21.633307652783937</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>1280.5333333333335</v>
+      </c>
+      <c r="L19">
+        <v>1540</v>
+      </c>
+      <c r="M19">
+        <f>SQRT(L19*3/10)</f>
+        <v>21.494185260204677</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1254.5333333333333</v>
+      </c>
+      <c r="L20">
+        <v>1520</v>
+      </c>
+      <c r="M20">
+        <f>SQRT(L20*3/10)</f>
+        <v>21.354156504062622</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19.2</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>1228.8</v>
+      </c>
+      <c r="L21">
+        <v>1500</v>
+      </c>
+      <c r="M21">
+        <f>SQRT(L21*3/10)</f>
+        <v>21.213203435596427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>1203.3333333333333</v>
+      </c>
+      <c r="L22">
+        <v>1480</v>
+      </c>
+      <c r="M22">
+        <f>SQRT(L22*3/10)</f>
+        <v>21.071307505705477</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>18.8</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>1178.1333333333334</v>
+      </c>
+      <c r="L23">
+        <v>1460</v>
+      </c>
+      <c r="M23">
+        <f>SQRT(L23*3/10)</f>
+        <v>20.928449536456348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>1153.2</v>
+      </c>
+      <c r="L24">
+        <v>1440</v>
+      </c>
+      <c r="M24">
+        <f>SQRT(L24*3/10)</f>
+        <v>20.784609690826528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>1128.5333333333333</v>
+      </c>
+      <c r="L25">
+        <v>1420</v>
+      </c>
+      <c r="M25">
+        <f>SQRT(L25*3/10)</f>
+        <v>20.639767440550294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>18.2</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>1104.1333333333334</v>
+      </c>
+      <c r="L26">
+        <v>1400</v>
+      </c>
+      <c r="M26">
+        <f>SQRT(L26*3/10)</f>
+        <v>20.493901531919196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+      <c r="L27">
+        <v>1380</v>
+      </c>
+      <c r="M27">
+        <f>SQRT(L27*3/10)</f>
+        <v>20.346989949375804</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>17.8</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>1056.1333333333334</v>
+      </c>
+      <c r="L28">
+        <v>1360</v>
+      </c>
+      <c r="M28">
+        <f>SQRT(L28*3/10)</f>
+        <v>20.199009876724155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>1032.5333333333335</v>
+      </c>
+      <c r="L29">
+        <v>1340</v>
+      </c>
+      <c r="M29">
+        <f>SQRT(L29*3/10)</f>
+        <v>20.049937655763422</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>1009.1999999999999</v>
+      </c>
+      <c r="L30">
+        <v>1320</v>
+      </c>
+      <c r="M30">
+        <f>SQRT(L30*3/10)</f>
+        <v>19.899748742132399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>17.2</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>986.13333333333333</v>
+      </c>
+      <c r="L31">
+        <v>1300</v>
+      </c>
+      <c r="M31">
+        <f>SQRT(L31*3/10)</f>
+        <v>19.748417658131498</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>17</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>963.33333333333337</v>
+      </c>
+      <c r="L32">
+        <v>1280</v>
+      </c>
+      <c r="M32">
+        <f>SQRT(L32*3/10)</f>
+        <v>19.595917942265423</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>16.8</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>940.80000000000007</v>
+      </c>
+      <c r="L33">
+        <v>1260</v>
+      </c>
+      <c r="M33">
+        <f>SQRT(L33*3/10)</f>
+        <v>19.442222095223581</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>918.53333333333342</v>
+      </c>
+      <c r="L34">
+        <v>1240</v>
+      </c>
+      <c r="M34">
+        <f>SQRT(L34*3/10)</f>
+        <v>19.28730152198591</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>896.5333333333333</v>
+      </c>
+      <c r="L35">
+        <v>1220</v>
+      </c>
+      <c r="M35">
+        <f>SQRT(L35*3/10)</f>
+        <v>19.131126469708992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>16.2</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>874.80000000000007</v>
+      </c>
+      <c r="L36">
+        <v>1200</v>
+      </c>
+      <c r="M36">
+        <f>SQRT(L36*3/10)</f>
+        <v>18.973665961010276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>16</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>853.33333333333337</v>
+      </c>
+      <c r="L37">
+        <v>1180</v>
+      </c>
+      <c r="M37">
+        <f>SQRT(L37*3/10)</f>
+        <v>18.814887722226779</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>15.8</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>832.13333333333333</v>
+      </c>
+      <c r="L38">
+        <v>1160</v>
+      </c>
+      <c r="M38">
+        <f>SQRT(L38*3/10)</f>
+        <v>18.654758106177631</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>15.6</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>811.19999999999993</v>
+      </c>
+      <c r="L39">
+        <v>1140</v>
+      </c>
+      <c r="M39">
+        <f>SQRT(L39*3/10)</f>
+        <v>18.493242008906929</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>15.4</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>790.5333333333333</v>
+      </c>
+      <c r="L40">
+        <v>1120</v>
+      </c>
+      <c r="M40">
+        <f>SQRT(L40*3/10)</f>
+        <v>18.330302779823359</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>15.2</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>770.13333333333333</v>
+      </c>
+      <c r="L41">
+        <v>1100</v>
+      </c>
+      <c r="M41">
+        <f>SQRT(L41*3/10)</f>
+        <v>18.165902124584949</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>15</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="L42">
+        <v>1080</v>
+      </c>
+      <c r="M42">
+        <f>SQRT(L42*3/10)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>14.8</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>730.13333333333333</v>
+      </c>
+      <c r="L43">
+        <v>1060</v>
+      </c>
+      <c r="M43">
+        <f>SQRT(L43*3/10)</f>
+        <v>17.832554500127006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>14.6</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>710.5333333333333</v>
+      </c>
+      <c r="L44">
+        <v>1040</v>
+      </c>
+      <c r="M44">
+        <f>SQRT(L44*3/10)</f>
+        <v>17.663521732655695</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>14.4</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>691.19999999999993</v>
+      </c>
+      <c r="L45">
+        <v>1020</v>
+      </c>
+      <c r="M45">
+        <f>SQRT(L45*3/10)</f>
+        <v>17.4928556845359</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>14.2</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>672.13333333333333</v>
+      </c>
+      <c r="L46">
+        <v>1000</v>
+      </c>
+      <c r="M46">
+        <f>SQRT(L46*3/10)</f>
+        <v>17.320508075688775</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>653.33333333333337</v>
+      </c>
+      <c r="L47">
+        <v>980</v>
+      </c>
+      <c r="M47">
+        <f>SQRT(L47*3/10)</f>
+        <v>17.146428199482248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>13.8</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>634.80000000000007</v>
+      </c>
+      <c r="L48">
+        <v>960</v>
+      </c>
+      <c r="M48">
+        <f>SQRT(L48*3/10)</f>
+        <v>16.970562748477139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>13.6</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>616.5333333333333</v>
+      </c>
+      <c r="L49">
+        <v>940</v>
+      </c>
+      <c r="M49">
+        <f>SQRT(L49*3/10)</f>
+        <v>16.792855623746664</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>13.4</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>598.53333333333342</v>
+      </c>
+      <c r="L50">
+        <v>920</v>
+      </c>
+      <c r="M50">
+        <f>SQRT(L50*3/10)</f>
+        <v>16.61324772583615</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>13.2</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>580.79999999999995</v>
+      </c>
+      <c r="L51">
+        <v>900</v>
+      </c>
+      <c r="M51">
+        <f>SQRT(L51*3/10)</f>
+        <v>16.431676725154983</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>13</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>563.33333333333337</v>
+      </c>
+      <c r="L52">
+        <v>880</v>
+      </c>
+      <c r="M52">
+        <f>SQRT(L52*3/10)</f>
+        <v>16.248076809271922</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>12.8</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>546.13333333333333</v>
+      </c>
+      <c r="L53">
+        <v>860</v>
+      </c>
+      <c r="M53">
+        <f>SQRT(L53*3/10)</f>
+        <v>16.06237840420901</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>12.6</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>529.19999999999993</v>
+      </c>
+      <c r="L54">
+        <v>840</v>
+      </c>
+      <c r="M54">
+        <f>SQRT(L54*3/10)</f>
+        <v>15.874507866387544</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>12.4</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>512.53333333333342</v>
+      </c>
+      <c r="L55">
+        <v>820</v>
+      </c>
+      <c r="M55">
+        <f>SQRT(L55*3/10)</f>
+        <v>15.684387141358123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>12.2</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>496.13333333333327</v>
+      </c>
+      <c r="L56">
+        <v>800</v>
+      </c>
+      <c r="M56">
+        <f>SQRT(L56*3/10)</f>
+        <v>15.491933384829668</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>12</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="L57">
+        <v>780</v>
+      </c>
+      <c r="M57">
+        <f>SQRT(L57*3/10)</f>
+        <v>15.297058540778355</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L58">
+        <v>760</v>
+      </c>
+      <c r="M58">
+        <f>SQRT(L58*3/10)</f>
+        <v>15.0996688705415</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L59">
+        <v>740</v>
+      </c>
+      <c r="M59">
+        <f>SQRT(L59*3/10)</f>
+        <v>14.89966442575134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L60">
+        <v>720</v>
+      </c>
+      <c r="M60">
+        <f>SQRT(L60*3/10)</f>
+        <v>14.696938456699069</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L61">
+        <v>700</v>
+      </c>
+      <c r="M61">
+        <f t="shared" ref="M61:M96" si="1">SQRT(L61*3/10)</f>
+        <v>14.491376746189438</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L62">
+        <v>680</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="1"/>
+        <v>14.282856857085701</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L63">
+        <v>660</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="1"/>
+        <v>14.071247279470288</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L64">
+        <v>640</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="1"/>
+        <v>13.856406460551018</v>
+      </c>
+    </row>
+    <row r="65" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L65">
+        <v>620</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="1"/>
+        <v>13.638181696985855</v>
+      </c>
+    </row>
+    <row r="66" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L66">
+        <v>600</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="1"/>
+        <v>13.416407864998739</v>
+      </c>
+    </row>
+    <row r="67" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L67">
+        <v>580</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="1"/>
+        <v>13.19090595827292</v>
+      </c>
+    </row>
+    <row r="68" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L68">
+        <v>560</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="1"/>
+        <v>12.961481396815721</v>
+      </c>
+    </row>
+    <row r="69" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L69">
+        <v>540</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="1"/>
+        <v>12.727922061357855</v>
+      </c>
+    </row>
+    <row r="70" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L70">
+        <v>520</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="1"/>
+        <v>12.489995996796797</v>
+      </c>
+    </row>
+    <row r="71" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L71">
+        <v>500</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="1"/>
+        <v>12.24744871391589</v>
+      </c>
+    </row>
+    <row r="72" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L72">
+        <v>480</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L73">
+        <v>460</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="1"/>
+        <v>11.74734012447073</v>
+      </c>
+    </row>
+    <row r="74" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L74">
+        <v>440</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="1"/>
+        <v>11.489125293076057</v>
+      </c>
+    </row>
+    <row r="75" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L75">
+        <v>420</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="1"/>
+        <v>11.224972160321824</v>
+      </c>
+    </row>
+    <row r="76" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L76">
+        <v>400</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="1"/>
+        <v>10.954451150103322</v>
+      </c>
+    </row>
+    <row r="77" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L77">
+        <v>380</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="1"/>
+        <v>10.677078252031311</v>
+      </c>
+    </row>
+    <row r="78" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L78">
+        <v>360</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="1"/>
+        <v>10.392304845413264</v>
+      </c>
+    </row>
+    <row r="79" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L79">
+        <v>340</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="1"/>
+        <v>10.099504938362077</v>
+      </c>
+    </row>
+    <row r="80" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L80">
+        <v>320</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="1"/>
+        <v>9.7979589711327115</v>
+      </c>
+    </row>
+    <row r="81" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L81">
+        <v>300</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="1"/>
+        <v>9.4868329805051381</v>
+      </c>
+    </row>
+    <row r="82" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L82">
+        <v>280</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="1"/>
+        <v>9.1651513899116797</v>
+      </c>
+    </row>
+    <row r="83" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L83">
+        <v>260</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="1"/>
+        <v>8.8317608663278477</v>
+      </c>
+    </row>
+    <row r="84" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L84">
+        <v>240</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="1"/>
+        <v>8.4852813742385695</v>
+      </c>
+    </row>
+    <row r="85" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L85">
+        <v>220</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="1"/>
+        <v>8.1240384046359608</v>
+      </c>
+    </row>
+    <row r="86" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L86">
+        <v>200</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="1"/>
+        <v>7.745966692414834</v>
+      </c>
+    </row>
+    <row r="87" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L87">
+        <v>180</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="1"/>
+        <v>7.3484692283495345</v>
+      </c>
+    </row>
+    <row r="88" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L88">
+        <v>160</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="1"/>
+        <v>6.9282032302755088</v>
+      </c>
+    </row>
+    <row r="89" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L89">
+        <v>140</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="1"/>
+        <v>6.4807406984078604</v>
+      </c>
+    </row>
+    <row r="90" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L90">
+        <v>120</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L91">
+        <v>100</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="1"/>
+        <v>5.4772255750516612</v>
+      </c>
+    </row>
+    <row r="92" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L92">
+        <v>80</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="1"/>
+        <v>4.8989794855663558</v>
+      </c>
+    </row>
+    <row r="93" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L93">
+        <v>60</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="1"/>
+        <v>4.2426406871192848</v>
+      </c>
+    </row>
+    <row r="94" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L94">
+        <v>40</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="1"/>
+        <v>3.4641016151377544</v>
+      </c>
+    </row>
+    <row r="95" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L95">
+        <v>20</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="1"/>
+        <v>2.4494897427831779</v>
+      </c>
+    </row>
+    <row r="96" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72540B5-853B-4B51-9872-03B298089390}">
   <dimension ref="A1:K49"/>
@@ -45337,19 +49366,19 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -46215,14 +50244,14 @@
       <c r="C44" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="35" t="s">
+      <c r="E44" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35" t="s">
+      <c r="F44" s="38"/>
+      <c r="G44" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="H44" s="35"/>
+      <c r="H44" s="38"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -46234,16 +50263,16 @@
       <c r="C45">
         <v>1.3</v>
       </c>
-      <c r="E45" s="35">
+      <c r="E45" s="38">
         <f>C45*19.895-0.028</f>
         <v>25.835500000000003</v>
       </c>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35">
+      <c r="F45" s="38"/>
+      <c r="G45" s="38">
         <f>B45*19.895-0.028</f>
         <v>25.815604999999998</v>
       </c>
-      <c r="H45" s="35"/>
+      <c r="H45" s="38"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -46255,16 +50284,16 @@
       <c r="C46">
         <v>1.5693999999999999</v>
       </c>
-      <c r="E46" s="35">
+      <c r="E46" s="38">
         <f>C46*11.703-18.352</f>
         <v>1.4688199999998375E-2</v>
       </c>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35">
+      <c r="F46" s="38"/>
+      <c r="G46" s="38">
         <f>B46*11.703-18.352</f>
         <v>1.0006999999998101E-2</v>
       </c>
-      <c r="H46" s="35"/>
+      <c r="H46" s="38"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -46276,16 +50305,16 @@
       <c r="C47">
         <v>1.6484000000000001</v>
       </c>
-      <c r="E47" s="35">
+      <c r="E47" s="38">
         <f>C47*12.42-20.584</f>
         <v>-0.11087199999999697</v>
       </c>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35">
+      <c r="F47" s="38"/>
+      <c r="G47" s="38">
         <f>B47*12.42-20.584</f>
         <v>-7.8579999999998762E-2</v>
       </c>
-      <c r="H47" s="35"/>
+      <c r="H47" s="38"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -46297,16 +50326,16 @@
       <c r="C48">
         <v>1.6427</v>
       </c>
-      <c r="E48" s="35">
+      <c r="E48" s="38">
         <f>C48*25.947-42.684</f>
         <v>-6.0863099999998838E-2</v>
       </c>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35">
+      <c r="F48" s="38"/>
+      <c r="G48" s="38">
         <f>B48*25.947-42.684</f>
         <v>-0.18281400000000048</v>
       </c>
-      <c r="H48" s="35"/>
+      <c r="H48" s="38"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -46318,18 +50347,24 @@
       <c r="C49">
         <v>0.47799999999999998</v>
       </c>
-      <c r="E49" s="35">
+      <c r="E49" s="38">
         <f>C49*20.03-0.0223</f>
         <v>9.5520399999999999</v>
       </c>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35">
+      <c r="F49" s="38"/>
+      <c r="G49" s="38">
         <v>9.48</v>
       </c>
-      <c r="H49" s="35"/>
+      <c r="H49" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="A1:K1"/>
@@ -46337,12 +50372,6 @@
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="G45:H45"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49229,19 +53258,19 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -50201,19 +54230,19 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -50848,19 +54877,19 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
